--- a/grade_curricular.xlsx
+++ b/grade_curricular.xlsx
@@ -862,11 +862,11 @@
   <dimension ref="A1:AMJ126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A94" activeCellId="0" sqref="A94"/>
+      <selection pane="bottomRight" activeCell="G99" activeCellId="0" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -931,7 +931,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -983,7 +983,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1127,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>49</v>
@@ -1323,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>31</v>
@@ -1349,7 +1349,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>37</v>
@@ -1453,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>20</v>
@@ -1525,7 +1525,7 @@
         <v>41</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,7 +1574,7 @@
         <v>54</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>62</v>
@@ -1600,7 +1600,7 @@
         <v>41</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>64</v>
@@ -1626,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>69</v>
@@ -1652,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>65</v>
@@ -1678,7 +1678,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>87</v>
@@ -1704,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>91</v>
@@ -1831,7 +1831,7 @@
         <v>14</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>64</v>
@@ -1857,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>65</v>
@@ -1909,7 +1909,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>109</v>
@@ -1961,7 +1961,7 @@
         <v>54</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>89</v>
@@ -1987,7 +1987,7 @@
         <v>38</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>116</v>
@@ -2013,7 +2013,7 @@
         <v>14</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>106</v>
@@ -2065,7 +2065,7 @@
         <v>41</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>84</v>
@@ -2143,7 +2143,7 @@
         <v>24</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>100</v>
@@ -2169,7 +2169,7 @@
         <v>24</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>116</v>
@@ -2299,7 +2299,7 @@
         <v>24</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>146</v>
@@ -2351,7 +2351,7 @@
         <v>14</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>128</v>
@@ -2400,7 +2400,7 @@
         <v>14</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,7 +2423,7 @@
         <v>24</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,7 +2446,7 @@
         <v>24</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,7 +2515,7 @@
         <v>24</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>115</v>
@@ -2723,7 +2723,7 @@
         <v>24</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>146</v>
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>146</v>
@@ -2801,7 +2801,7 @@
         <v>54</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>84</v>
@@ -2830,7 +2830,7 @@
         <v>195</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>84</v>
@@ -2931,7 +2931,7 @@
         <v>14</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,7 +3075,7 @@
         <v>24</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,7 +3098,7 @@
         <v>24</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +3121,7 @@
         <v>14</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,7 +3167,7 @@
         <v>54</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,7 +3213,7 @@
         <v>24</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,7 +3236,7 @@
         <v>24</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +3259,7 @@
         <v>24</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,7 +3282,7 @@
         <v>24</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,7 +3328,7 @@
         <v>14</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
